--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_64.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_64.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mai Sato</t>
+          <t>Chiyo Maeda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
